--- a/data/trans_dic/P3A$otraSIcobra-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P3A$otraSIcobra-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0224243726073448</v>
+        <v>0.02238676817292227</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02676871148492422</v>
+        <v>0.0271043299167451</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02741217423167245</v>
+        <v>0.02742896561532793</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04693217067832502</v>
+        <v>0.0471102034276862</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0456459349023787</v>
+        <v>0.04701616628422969</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04361150839938015</v>
+        <v>0.04259960890539308</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01417434496002501</v>
+        <v>0.01345281505450938</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02120721943745655</v>
+        <v>0.0215967307745353</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01959563934684554</v>
+        <v>0.01895265611647598</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03603015092580213</v>
+        <v>0.0364970058581819</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03791667875414464</v>
+        <v>0.03791683319685795</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0331558407493837</v>
+        <v>0.03242101160461788</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01653389555329107</v>
+        <v>0.01677539103523935</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02606894350779824</v>
+        <v>0.02706348839756387</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0244211913564028</v>
+        <v>0.02403363700935463</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04272300929913054</v>
+        <v>0.04221450404818185</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04850203692703895</v>
+        <v>0.04897950256730596</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0406963423623497</v>
+        <v>0.04071736826986048</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.03725736131593388</v>
+        <v>0.03725736131593389</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.04657297638604222</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02642255066418347</v>
+        <v>0.02742715456264606</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03680019313599391</v>
+        <v>0.03717178706447843</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03394871960812165</v>
+        <v>0.03533671324097101</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05150745360821681</v>
+        <v>0.05164154455248771</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05760199181187284</v>
+        <v>0.05824750145126985</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05123912825296509</v>
+        <v>0.05144671400119601</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0241882333306379</v>
+        <v>0.02416439059867408</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03234714416498347</v>
+        <v>0.0315665311109557</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0298497194843199</v>
+        <v>0.02972976473708566</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03619139624328958</v>
+        <v>0.0362026724435433</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04288759910046998</v>
+        <v>0.04258775700192215</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03729726621372113</v>
+        <v>0.03723553474181183</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>15478</v>
+        <v>15452</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>19653</v>
+        <v>19899</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>39046</v>
+        <v>39070</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>32394</v>
+        <v>32517</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>33512</v>
+        <v>34518</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>62120</v>
+        <v>60679</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>14868</v>
+        <v>14111</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>22723</v>
+        <v>23140</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>41550</v>
+        <v>40187</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>37793</v>
+        <v>38282</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>40627</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>70303</v>
+        <v>68745</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>13278</v>
+        <v>13472</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>21175</v>
+        <v>21983</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>39448</v>
+        <v>38822</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>34310</v>
+        <v>33901</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>39396</v>
+        <v>39784</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>65738</v>
+        <v>65772</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>26144</v>
+        <v>27138</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>41135</v>
+        <v>41550</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>71538</v>
+        <v>74463</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>50964</v>
+        <v>51097</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>64387</v>
+        <v>65109</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>107974</v>
+        <v>108411</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>85425</v>
+        <v>85341</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>120840</v>
+        <v>117923</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>216929</v>
+        <v>216057</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>127816</v>
+        <v>127856</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>160216</v>
+        <v>159095</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>271053</v>
+        <v>270605</v>
       </c>
     </row>
     <row r="24">
